--- a/biology/Zoologie/Genetta/Genetta.xlsx
+++ b/biology/Zoologie/Genetta/Genetta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genettes
 Les Genettes (genre Genetta) sont des mammifères carnivores de la famille des Viverridés.
@@ -512,19 +524,21 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre comprend les 14 espèces suivantes, selon Mammal Species of the World (version 3, 2005)  (2 mars 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre comprend les 14 espèces suivantes, selon Mammal Species of the World (version 3, 2005)  (2 mars 2015) :
 Genetta abyssinica (Rüppell, 1836) — Genette d'Abyssinie
 Genetta angolensis (Bocage, 1882 ) — Genette d'Angola
 Genetta bourloni — Genette de Bourlon
-Genetta cristata — Genette à crête[2]
+Genetta cristata — Genette à crête
 Genetta genetta (Linnaeus, 1758) — Genette commune
 Genetta johnstoni (Pocock, 1908) — Genette de Johnston
 Genetta maculata (Gray, 1830) — Genette panthère
 Genetta pardina — Genette pardine
 Genetta piscivora — Genette aquatique
-Genetta poensis — Genette royale[2]
+Genetta poensis — Genette royale
 Genetta servalina (Pucheran, 1855) — Genette servaline
 Genetta thierryi (Matschie, 1902) — Genette Haussa
 Genetta tigrina (Schreber, 1776) — Genette tigrine
